--- a/aDiary/templateMisiones.xlsx
+++ b/aDiary/templateMisiones.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t xml:space="preserve">Mision-Default</t>
+  </si>
   <si>
     <t xml:space="preserve">#end</t>
   </si>
@@ -29,11 +32,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -54,11 +58,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,7 +102,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -112,7 +111,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -133,10 +140,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -145,28 +152,69 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="1" t="str">
+        <f aca="false">TEXT(A7,"yyyy-mm-dd")</f>
+        <v>2018-08-13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="str">
+        <f aca="false">TEXT(A8,"yyyy-mm-dd")</f>
+        <v>2018-08-14</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="str">
+        <f aca="false">TEXT(A9,"yyyy-mm-dd")</f>
+        <v>2018-08-15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="str">
+        <f aca="false">TEXT(A10,"yyyy-mm-dd")</f>
+        <v>2018-08-16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>43329</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>43330</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>43325</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>43326</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>43327</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>43328</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>0</v>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
